--- a/MesAdmin/Template/LBJ/刃具基础数据.xlsx
+++ b/MesAdmin/Template/LBJ/刃具基础数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,11 +32,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9902</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -403,7 +407,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,12 +421,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
